--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H2">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.382637532039117</v>
+        <v>0.7132103333333334</v>
       </c>
       <c r="N2">
-        <v>0.382637532039117</v>
+        <v>2.139631</v>
       </c>
       <c r="O2">
-        <v>0.2663663236170458</v>
+        <v>0.3847801132923274</v>
       </c>
       <c r="P2">
-        <v>0.2663663236170458</v>
+        <v>0.3847801132923274</v>
       </c>
       <c r="Q2">
-        <v>0.8605288712913644</v>
+        <v>1.797866313949334</v>
       </c>
       <c r="R2">
-        <v>0.8605288712913644</v>
+        <v>16.180796825544</v>
       </c>
       <c r="S2">
-        <v>0.2663663236170458</v>
+        <v>0.3847801132923274</v>
       </c>
       <c r="T2">
-        <v>0.2663663236170458</v>
+        <v>0.3847801132923274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H3">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5703099993285951</v>
+        <v>0.6105696666666667</v>
       </c>
       <c r="N3">
-        <v>0.5703099993285951</v>
+        <v>1.831709</v>
       </c>
       <c r="O3">
-        <v>0.397011179310209</v>
+        <v>0.3294050219587282</v>
       </c>
       <c r="P3">
-        <v>0.397011179310209</v>
+        <v>0.3294050219587283</v>
       </c>
       <c r="Q3">
-        <v>1.282592999680553</v>
+        <v>1.539128900290667</v>
       </c>
       <c r="R3">
-        <v>1.282592999680553</v>
+        <v>13.852160102616</v>
       </c>
       <c r="S3">
-        <v>0.397011179310209</v>
+        <v>0.3294050219587282</v>
       </c>
       <c r="T3">
-        <v>0.397011179310209</v>
+        <v>0.3294050219587283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H4">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.483561134004094</v>
+        <v>0.529773</v>
       </c>
       <c r="N4">
-        <v>0.483561134004094</v>
+        <v>1.589319</v>
       </c>
       <c r="O4">
-        <v>0.3366224970727453</v>
+        <v>0.2858148647489443</v>
       </c>
       <c r="P4">
-        <v>0.3366224970727453</v>
+        <v>0.2858148647489444</v>
       </c>
       <c r="Q4">
-        <v>1.087500001966288</v>
+        <v>1.335456016584</v>
       </c>
       <c r="R4">
-        <v>1.087500001966288</v>
+        <v>12.019104149256</v>
       </c>
       <c r="S4">
-        <v>0.3366224970727453</v>
+        <v>0.2858148647489443</v>
       </c>
       <c r="T4">
-        <v>0.3366224970727453</v>
+        <v>0.2858148647489444</v>
       </c>
     </row>
   </sheetData>
